--- a/cassandra_issues_inspected_merged.xlsx
+++ b/cassandra_issues_inspected_merged.xlsx
@@ -6314,8 +6314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A183" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="M183" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -13795,10 +13795,10 @@
         <v>27</v>
       </c>
       <c r="I183" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J183" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K183" s="12">
         <v>0</v>
@@ -13807,7 +13807,7 @@
         <v>0</v>
       </c>
       <c r="M183" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:13" ht="250" customHeight="1">
@@ -13836,10 +13836,10 @@
         <v>27</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J184" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K184" s="12">
         <v>0</v>
@@ -13848,7 +13848,7 @@
         <v>0</v>
       </c>
       <c r="M184" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:13" ht="42" customHeight="1">
@@ -13877,10 +13877,10 @@
         <v>27</v>
       </c>
       <c r="I185" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J185" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K185" s="12">
         <v>0</v>
@@ -13889,7 +13889,7 @@
         <v>0</v>
       </c>
       <c r="M185" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:13" ht="42" customHeight="1">
@@ -13918,10 +13918,10 @@
         <v>27</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J186" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K186" s="12">
         <v>0</v>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
       <c r="M186" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="409.6" customHeight="1">
@@ -14000,10 +14000,10 @@
         <v>27</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J188" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K188" s="12">
         <v>0</v>
@@ -14012,7 +14012,7 @@
         <v>0</v>
       </c>
       <c r="M188" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:13" ht="16" customHeight="1">
@@ -14039,10 +14039,10 @@
         <v>27</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J189" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K189" s="12">
         <v>0</v>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="M189" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:13" ht="16" customHeight="1">
@@ -14078,10 +14078,10 @@
         <v>27</v>
       </c>
       <c r="I190" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J190" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K190" s="12">
         <v>0</v>
@@ -14090,7 +14090,7 @@
         <v>0</v>
       </c>
       <c r="M190" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:13" ht="16" customHeight="1">
@@ -14119,10 +14119,10 @@
         <v>27</v>
       </c>
       <c r="I191" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J191" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K191" s="12">
         <v>0</v>
@@ -14131,7 +14131,7 @@
         <v>0</v>
       </c>
       <c r="M191" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:13" ht="68" customHeight="1">

--- a/cassandra_issues_inspected_merged.xlsx
+++ b/cassandra_issues_inspected_merged.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-37480" yWindow="-6920" windowWidth="36680" windowHeight="21860"/>
+    <workbookView xWindow="-37460" yWindow="-6920" windowWidth="36680" windowHeight="21860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5051,8 +5051,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5077,7 +5083,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5085,6 +5091,9 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5092,6 +5101,9 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5454,7 +5466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
@@ -5512,34 +5524,34 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>641</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>642</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>643</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>644</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -5548,18 +5560,18 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>594</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>595</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -5567,20 +5579,17 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>596</v>
-      </c>
       <c r="G3" t="s">
-        <v>597</v>
+        <v>150</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -5589,18 +5598,18 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -5609,10 +5618,10 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -5635,10 +5644,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>586</v>
+        <v>198</v>
       </c>
       <c r="B5" t="s">
-        <v>587</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -5647,22 +5656,22 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>588</v>
+        <v>200</v>
       </c>
       <c r="G5" t="s">
-        <v>589</v>
+        <v>201</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -5671,18 +5680,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>625</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>626</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -5691,10 +5700,10 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>627</v>
+        <v>223</v>
       </c>
       <c r="G6" t="s">
-        <v>628</v>
+        <v>224</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -5717,34 +5726,34 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>621</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>622</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>623</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>624</v>
+        <v>100</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -5753,15 +5762,15 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="B8" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -5773,10 +5782,10 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="G8" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -5799,34 +5808,34 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="B9" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="G9" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -5835,18 +5844,18 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>629</v>
+        <v>665</v>
       </c>
       <c r="B10" t="s">
-        <v>630</v>
+        <v>666</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -5855,19 +5864,19 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>631</v>
+        <v>667</v>
       </c>
       <c r="G10" t="s">
-        <v>632</v>
+        <v>668</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -5876,30 +5885,30 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="B11" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="G11" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -5922,34 +5931,34 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="B12" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="G12" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -5958,30 +5967,30 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>657</v>
+        <v>676</v>
       </c>
       <c r="B13" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
       <c r="G13" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -6004,25 +6013,25 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>649</v>
+        <v>672</v>
       </c>
       <c r="B14" t="s">
-        <v>650</v>
+        <v>673</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>651</v>
+        <v>674</v>
       </c>
       <c r="G14" t="s">
-        <v>652</v>
+        <v>675</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -6045,13 +6054,13 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>676</v>
+        <v>704</v>
       </c>
       <c r="B15" t="s">
-        <v>677</v>
+        <v>705</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -6060,10 +6069,10 @@
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>678</v>
+        <v>706</v>
       </c>
       <c r="G15" t="s">
-        <v>679</v>
+        <v>707</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -6086,25 +6095,25 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>672</v>
+        <v>700</v>
       </c>
       <c r="B16" t="s">
-        <v>673</v>
+        <v>701</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>674</v>
+        <v>702</v>
       </c>
       <c r="G16" t="s">
-        <v>675</v>
+        <v>703</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -6127,31 +6136,34 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>669</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s">
-        <v>670</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
       </c>
       <c r="G17" t="s">
-        <v>671</v>
+        <v>147</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -6160,18 +6172,18 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="B18" t="s">
-        <v>705</v>
+        <v>725</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -6180,10 +6192,10 @@
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>706</v>
+        <v>726</v>
       </c>
       <c r="G18" t="s">
-        <v>707</v>
+        <v>727</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -6206,10 +6218,10 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>700</v>
+        <v>740</v>
       </c>
       <c r="B19" t="s">
-        <v>701</v>
+        <v>741</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -6218,13 +6230,13 @@
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>702</v>
+        <v>742</v>
       </c>
       <c r="G19" t="s">
-        <v>703</v>
+        <v>743</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -6247,13 +6259,13 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>696</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>697</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -6262,19 +6274,19 @@
         <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>698</v>
+        <v>131</v>
       </c>
       <c r="G20" t="s">
-        <v>699</v>
+        <v>132</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -6283,15 +6295,15 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>760</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>761</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -6300,13 +6312,13 @@
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>146</v>
+        <v>762</v>
       </c>
       <c r="G21" t="s">
-        <v>147</v>
+        <v>763</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -6329,34 +6341,34 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>764</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>765</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>142</v>
+        <v>766</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>767</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -6365,30 +6377,30 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>724</v>
+        <v>772</v>
       </c>
       <c r="B23" t="s">
-        <v>725</v>
+        <v>773</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>726</v>
+        <v>774</v>
       </c>
       <c r="G23" t="s">
-        <v>727</v>
+        <v>775</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -6411,13 +6423,13 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>133</v>
+        <v>776</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>777</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -6425,17 +6437,20 @@
       <c r="E24" t="s">
         <v>12</v>
       </c>
+      <c r="F24" t="s">
+        <v>778</v>
+      </c>
       <c r="G24" t="s">
-        <v>135</v>
+        <v>779</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -6444,39 +6459,39 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>716</v>
+        <v>792</v>
       </c>
       <c r="B25" t="s">
-        <v>717</v>
+        <v>793</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>718</v>
+        <v>794</v>
       </c>
       <c r="G25" t="s">
-        <v>719</v>
+        <v>795</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -6485,30 +6500,30 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>740</v>
+        <v>788</v>
       </c>
       <c r="B26" t="s">
-        <v>741</v>
+        <v>789</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>742</v>
+        <v>790</v>
       </c>
       <c r="G26" t="s">
-        <v>743</v>
+        <v>791</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
@@ -6531,10 +6546,10 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>752</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
-        <v>753</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
         <v>38</v>
@@ -6543,22 +6558,22 @@
         <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>754</v>
+        <v>123</v>
       </c>
       <c r="G27" t="s">
-        <v>755</v>
+        <v>124</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -6567,15 +6582,15 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>780</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>781</v>
       </c>
       <c r="C28" t="s">
         <v>22</v>
@@ -6584,13 +6599,13 @@
         <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>131</v>
+        <v>782</v>
       </c>
       <c r="G28" t="s">
-        <v>132</v>
+        <v>783</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
@@ -6613,10 +6628,10 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>760</v>
+        <v>804</v>
       </c>
       <c r="B29" t="s">
-        <v>761</v>
+        <v>805</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -6625,13 +6640,13 @@
         <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>762</v>
+        <v>806</v>
       </c>
       <c r="G29" t="s">
-        <v>763</v>
+        <v>807</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
@@ -6654,13 +6669,13 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>756</v>
+        <v>808</v>
       </c>
       <c r="B30" t="s">
-        <v>757</v>
+        <v>809</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
@@ -6669,19 +6684,19 @@
         <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>758</v>
+        <v>810</v>
       </c>
       <c r="G30" t="s">
-        <v>759</v>
+        <v>811</v>
       </c>
       <c r="H30" t="s">
         <v>14</v>
       </c>
       <c r="I30" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -6690,30 +6705,30 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>764</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s">
-        <v>765</v>
+        <v>176</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F31" t="s">
-        <v>766</v>
+        <v>177</v>
       </c>
       <c r="G31" t="s">
-        <v>767</v>
+        <v>178</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
@@ -6736,25 +6751,25 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>772</v>
+        <v>824</v>
       </c>
       <c r="B32" t="s">
-        <v>773</v>
+        <v>825</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>774</v>
+        <v>826</v>
       </c>
       <c r="G32" t="s">
-        <v>775</v>
+        <v>827</v>
       </c>
       <c r="H32" t="s">
         <v>14</v>
@@ -6777,13 +6792,13 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>768</v>
+        <v>820</v>
       </c>
       <c r="B33" t="s">
-        <v>769</v>
+        <v>821</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -6792,19 +6807,19 @@
         <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>770</v>
+        <v>822</v>
       </c>
       <c r="G33" t="s">
-        <v>771</v>
+        <v>823</v>
       </c>
       <c r="H33" t="s">
         <v>14</v>
       </c>
       <c r="I33" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -6813,15 +6828,15 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>776</v>
+        <v>816</v>
       </c>
       <c r="B34" t="s">
-        <v>777</v>
+        <v>817</v>
       </c>
       <c r="C34" t="s">
         <v>22</v>
@@ -6833,10 +6848,10 @@
         <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>778</v>
+        <v>818</v>
       </c>
       <c r="G34" t="s">
-        <v>779</v>
+        <v>819</v>
       </c>
       <c r="H34" t="s">
         <v>14</v>
@@ -6859,13 +6874,13 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>792</v>
+        <v>836</v>
       </c>
       <c r="B35" t="s">
-        <v>793</v>
+        <v>837</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
@@ -6874,10 +6889,10 @@
         <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>794</v>
+        <v>838</v>
       </c>
       <c r="G35" t="s">
-        <v>795</v>
+        <v>839</v>
       </c>
       <c r="H35" t="s">
         <v>14</v>
@@ -6900,13 +6915,13 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>788</v>
+        <v>832</v>
       </c>
       <c r="B36" t="s">
-        <v>789</v>
+        <v>833</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
@@ -6915,10 +6930,10 @@
         <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>790</v>
+        <v>834</v>
       </c>
       <c r="G36" t="s">
-        <v>791</v>
+        <v>835</v>
       </c>
       <c r="H36" t="s">
         <v>14</v>
@@ -6941,13 +6956,13 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>868</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>869</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -6956,10 +6971,10 @@
         <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>123</v>
+        <v>870</v>
       </c>
       <c r="G37" t="s">
-        <v>124</v>
+        <v>871</v>
       </c>
       <c r="H37" t="s">
         <v>14</v>
@@ -6982,13 +6997,13 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>780</v>
+        <v>860</v>
       </c>
       <c r="B38" t="s">
-        <v>781</v>
+        <v>861</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
@@ -6997,10 +7012,10 @@
         <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>782</v>
+        <v>862</v>
       </c>
       <c r="G38" t="s">
-        <v>783</v>
+        <v>863</v>
       </c>
       <c r="H38" t="s">
         <v>14</v>
@@ -7023,10 +7038,10 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>800</v>
+        <v>856</v>
       </c>
       <c r="B39" t="s">
-        <v>801</v>
+        <v>857</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
@@ -7035,22 +7050,22 @@
         <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>802</v>
+        <v>858</v>
       </c>
       <c r="G39" t="s">
-        <v>803</v>
+        <v>859</v>
       </c>
       <c r="H39" t="s">
         <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -7059,39 +7074,39 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>796</v>
+        <v>852</v>
       </c>
       <c r="B40" t="s">
-        <v>797</v>
+        <v>853</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>798</v>
+        <v>854</v>
       </c>
       <c r="G40" t="s">
-        <v>799</v>
+        <v>855</v>
       </c>
       <c r="H40" t="s">
         <v>14</v>
       </c>
       <c r="I40" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -7100,15 +7115,15 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>804</v>
+        <v>848</v>
       </c>
       <c r="B41" t="s">
-        <v>805</v>
+        <v>849</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
@@ -7120,10 +7135,10 @@
         <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>806</v>
+        <v>850</v>
       </c>
       <c r="G41" t="s">
-        <v>807</v>
+        <v>851</v>
       </c>
       <c r="H41" t="s">
         <v>14</v>
@@ -7146,13 +7161,13 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>808</v>
+        <v>888</v>
       </c>
       <c r="B42" t="s">
-        <v>809</v>
+        <v>889</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
@@ -7161,10 +7176,10 @@
         <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>810</v>
+        <v>890</v>
       </c>
       <c r="G42" t="s">
-        <v>811</v>
+        <v>891</v>
       </c>
       <c r="H42" t="s">
         <v>14</v>
@@ -7187,25 +7202,25 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>175</v>
+        <v>880</v>
       </c>
       <c r="B43" t="s">
-        <v>176</v>
+        <v>881</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>177</v>
+        <v>882</v>
       </c>
       <c r="G43" t="s">
-        <v>178</v>
+        <v>883</v>
       </c>
       <c r="H43" t="s">
         <v>14</v>
@@ -7228,10 +7243,10 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>824</v>
+        <v>876</v>
       </c>
       <c r="B44" t="s">
-        <v>825</v>
+        <v>877</v>
       </c>
       <c r="C44" t="s">
         <v>22</v>
@@ -7243,10 +7258,10 @@
         <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>826</v>
+        <v>878</v>
       </c>
       <c r="G44" t="s">
-        <v>827</v>
+        <v>879</v>
       </c>
       <c r="H44" t="s">
         <v>14</v>
@@ -7269,13 +7284,13 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>820</v>
+        <v>900</v>
       </c>
       <c r="B45" t="s">
-        <v>821</v>
+        <v>901</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
@@ -7284,10 +7299,10 @@
         <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>822</v>
+        <v>902</v>
       </c>
       <c r="G45" t="s">
-        <v>823</v>
+        <v>903</v>
       </c>
       <c r="H45" t="s">
         <v>14</v>
@@ -7310,13 +7325,13 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>816</v>
+        <v>896</v>
       </c>
       <c r="B46" t="s">
-        <v>817</v>
+        <v>897</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
@@ -7325,10 +7340,10 @@
         <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>818</v>
+        <v>898</v>
       </c>
       <c r="G46" t="s">
-        <v>819</v>
+        <v>899</v>
       </c>
       <c r="H46" t="s">
         <v>14</v>
@@ -7351,25 +7366,25 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>836</v>
+        <v>163</v>
       </c>
       <c r="B47" t="s">
-        <v>837</v>
+        <v>164</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F47" t="s">
-        <v>838</v>
+        <v>165</v>
       </c>
       <c r="G47" t="s">
-        <v>839</v>
+        <v>166</v>
       </c>
       <c r="H47" t="s">
         <v>14</v>
@@ -7392,13 +7407,13 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>832</v>
+        <v>159</v>
       </c>
       <c r="B48" t="s">
-        <v>833</v>
+        <v>160</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
@@ -7407,10 +7422,10 @@
         <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>834</v>
+        <v>161</v>
       </c>
       <c r="G48" t="s">
-        <v>835</v>
+        <v>162</v>
       </c>
       <c r="H48" t="s">
         <v>14</v>
@@ -7433,34 +7448,34 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>844</v>
+        <v>155</v>
       </c>
       <c r="B49" t="s">
-        <v>845</v>
+        <v>156</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F49" t="s">
-        <v>846</v>
+        <v>157</v>
       </c>
       <c r="G49" t="s">
-        <v>847</v>
+        <v>158</v>
       </c>
       <c r="H49" t="s">
         <v>14</v>
       </c>
       <c r="I49" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -7469,18 +7484,18 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>872</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>873</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
         <v>11</v>
@@ -7489,19 +7504,19 @@
         <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>874</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>875</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
         <v>14</v>
       </c>
       <c r="I50" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -7510,15 +7525,15 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>868</v>
+        <v>151</v>
       </c>
       <c r="B51" t="s">
-        <v>869</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
         <v>22</v>
@@ -7527,13 +7542,13 @@
         <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F51" t="s">
-        <v>870</v>
+        <v>153</v>
       </c>
       <c r="G51" t="s">
-        <v>871</v>
+        <v>154</v>
       </c>
       <c r="H51" t="s">
         <v>14</v>
@@ -7556,13 +7571,13 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>860</v>
+        <v>202</v>
       </c>
       <c r="B52" t="s">
-        <v>861</v>
+        <v>203</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D52" t="s">
         <v>11</v>
@@ -7571,10 +7586,10 @@
         <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>862</v>
+        <v>204</v>
       </c>
       <c r="G52" t="s">
-        <v>863</v>
+        <v>205</v>
       </c>
       <c r="H52" t="s">
         <v>14</v>
@@ -7597,13 +7612,13 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>856</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>857</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
@@ -7611,11 +7626,8 @@
       <c r="E53" t="s">
         <v>12</v>
       </c>
-      <c r="F53" t="s">
-        <v>858</v>
-      </c>
       <c r="G53" t="s">
-        <v>859</v>
+        <v>13</v>
       </c>
       <c r="H53" t="s">
         <v>14</v>
@@ -7638,25 +7650,25 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>852</v>
+        <v>191</v>
       </c>
       <c r="B54" t="s">
-        <v>853</v>
+        <v>192</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D54" t="s">
         <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F54" t="s">
-        <v>854</v>
+        <v>193</v>
       </c>
       <c r="G54" t="s">
-        <v>855</v>
+        <v>194</v>
       </c>
       <c r="H54" t="s">
         <v>14</v>
@@ -7679,10 +7691,10 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>848</v>
+        <v>183</v>
       </c>
       <c r="B55" t="s">
-        <v>849</v>
+        <v>184</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
@@ -7691,13 +7703,13 @@
         <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>850</v>
+        <v>185</v>
       </c>
       <c r="G55" t="s">
-        <v>851</v>
+        <v>186</v>
       </c>
       <c r="H55" t="s">
         <v>14</v>
@@ -7720,25 +7732,25 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>888</v>
+        <v>249</v>
       </c>
       <c r="B56" t="s">
-        <v>889</v>
+        <v>250</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F56" t="s">
-        <v>890</v>
+        <v>251</v>
       </c>
       <c r="G56" t="s">
-        <v>891</v>
+        <v>252</v>
       </c>
       <c r="H56" t="s">
         <v>14</v>
@@ -7761,10 +7773,10 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>880</v>
+        <v>241</v>
       </c>
       <c r="B57" t="s">
-        <v>881</v>
+        <v>242</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
@@ -7776,10 +7788,10 @@
         <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>882</v>
+        <v>243</v>
       </c>
       <c r="G57" t="s">
-        <v>883</v>
+        <v>244</v>
       </c>
       <c r="H57" t="s">
         <v>14</v>
@@ -7802,25 +7814,25 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>876</v>
+        <v>237</v>
       </c>
       <c r="B58" t="s">
-        <v>877</v>
+        <v>238</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F58" t="s">
-        <v>878</v>
+        <v>239</v>
       </c>
       <c r="G58" t="s">
-        <v>879</v>
+        <v>240</v>
       </c>
       <c r="H58" t="s">
         <v>14</v>
@@ -7843,10 +7855,10 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>900</v>
+        <v>225</v>
       </c>
       <c r="B59" t="s">
-        <v>901</v>
+        <v>226</v>
       </c>
       <c r="C59" t="s">
         <v>22</v>
@@ -7855,13 +7867,13 @@
         <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F59" t="s">
-        <v>902</v>
+        <v>227</v>
       </c>
       <c r="G59" t="s">
-        <v>903</v>
+        <v>228</v>
       </c>
       <c r="H59" t="s">
         <v>14</v>
@@ -7884,10 +7896,10 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>896</v>
+        <v>209</v>
       </c>
       <c r="B60" t="s">
-        <v>897</v>
+        <v>210</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
@@ -7899,10 +7911,10 @@
         <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>898</v>
+        <v>211</v>
       </c>
       <c r="G60" t="s">
-        <v>899</v>
+        <v>212</v>
       </c>
       <c r="H60" t="s">
         <v>14</v>
@@ -7925,10 +7937,10 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>163</v>
+        <v>276</v>
       </c>
       <c r="B61" t="s">
-        <v>164</v>
+        <v>277</v>
       </c>
       <c r="C61" t="s">
         <v>22</v>
@@ -7937,13 +7949,13 @@
         <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>165</v>
+        <v>278</v>
       </c>
       <c r="G61" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="H61" t="s">
         <v>14</v>
@@ -7966,10 +7978,10 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="B62" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="C62" t="s">
         <v>22</v>
@@ -7980,11 +7992,8 @@
       <c r="E62" t="s">
         <v>12</v>
       </c>
-      <c r="F62" t="s">
-        <v>161</v>
-      </c>
       <c r="G62" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="H62" t="s">
         <v>14</v>
@@ -8007,25 +8016,25 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c r="B63" t="s">
-        <v>156</v>
+        <v>301</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D63" t="s">
         <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>157</v>
+        <v>302</v>
       </c>
       <c r="G63" t="s">
-        <v>158</v>
+        <v>303</v>
       </c>
       <c r="H63" t="s">
         <v>14</v>
@@ -8048,10 +8057,10 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
@@ -8063,10 +8072,10 @@
         <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>290</v>
       </c>
       <c r="G64" t="s">
-        <v>19</v>
+        <v>291</v>
       </c>
       <c r="H64" t="s">
         <v>14</v>
@@ -8089,10 +8098,10 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>151</v>
+        <v>348</v>
       </c>
       <c r="B65" t="s">
-        <v>152</v>
+        <v>349</v>
       </c>
       <c r="C65" t="s">
         <v>22</v>
@@ -8104,10 +8113,10 @@
         <v>23</v>
       </c>
       <c r="F65" t="s">
-        <v>153</v>
+        <v>350</v>
       </c>
       <c r="G65" t="s">
-        <v>154</v>
+        <v>351</v>
       </c>
       <c r="H65" t="s">
         <v>14</v>
@@ -8130,10 +8139,10 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>202</v>
+        <v>336</v>
       </c>
       <c r="B66" t="s">
-        <v>203</v>
+        <v>337</v>
       </c>
       <c r="C66" t="s">
         <v>22</v>
@@ -8145,10 +8154,10 @@
         <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>204</v>
+        <v>338</v>
       </c>
       <c r="G66" t="s">
-        <v>205</v>
+        <v>339</v>
       </c>
       <c r="H66" t="s">
         <v>14</v>
@@ -8171,13 +8180,13 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D67" t="s">
         <v>11</v>
@@ -8186,7 +8195,7 @@
         <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
         <v>14</v>
@@ -8209,10 +8218,10 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>191</v>
+        <v>392</v>
       </c>
       <c r="B68" t="s">
-        <v>192</v>
+        <v>393</v>
       </c>
       <c r="C68" t="s">
         <v>22</v>
@@ -8224,10 +8233,10 @@
         <v>23</v>
       </c>
       <c r="F68" t="s">
-        <v>193</v>
+        <v>394</v>
       </c>
       <c r="G68" t="s">
-        <v>194</v>
+        <v>395</v>
       </c>
       <c r="H68" t="s">
         <v>14</v>
@@ -8250,25 +8259,25 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>183</v>
+        <v>436</v>
       </c>
       <c r="B69" t="s">
-        <v>184</v>
+        <v>437</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D69" t="s">
         <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F69" t="s">
-        <v>185</v>
+        <v>438</v>
       </c>
       <c r="G69" t="s">
-        <v>186</v>
+        <v>439</v>
       </c>
       <c r="H69" t="s">
         <v>14</v>
@@ -8291,10 +8300,10 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>249</v>
+        <v>432</v>
       </c>
       <c r="B70" t="s">
-        <v>250</v>
+        <v>433</v>
       </c>
       <c r="C70" t="s">
         <v>22</v>
@@ -8306,10 +8315,10 @@
         <v>23</v>
       </c>
       <c r="F70" t="s">
-        <v>251</v>
+        <v>434</v>
       </c>
       <c r="G70" t="s">
-        <v>252</v>
+        <v>435</v>
       </c>
       <c r="H70" t="s">
         <v>14</v>
@@ -8332,10 +8341,10 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>241</v>
+        <v>424</v>
       </c>
       <c r="B71" t="s">
-        <v>242</v>
+        <v>425</v>
       </c>
       <c r="C71" t="s">
         <v>17</v>
@@ -8347,10 +8356,10 @@
         <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>243</v>
+        <v>426</v>
       </c>
       <c r="G71" t="s">
-        <v>244</v>
+        <v>427</v>
       </c>
       <c r="H71" t="s">
         <v>14</v>
@@ -8373,10 +8382,10 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>237</v>
+        <v>408</v>
       </c>
       <c r="B72" t="s">
-        <v>238</v>
+        <v>409</v>
       </c>
       <c r="C72" t="s">
         <v>38</v>
@@ -8385,13 +8394,13 @@
         <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>239</v>
+        <v>410</v>
       </c>
       <c r="G72" t="s">
-        <v>240</v>
+        <v>411</v>
       </c>
       <c r="H72" t="s">
         <v>14</v>
@@ -8414,25 +8423,25 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>225</v>
+        <v>500</v>
       </c>
       <c r="B73" t="s">
-        <v>226</v>
+        <v>501</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D73" t="s">
         <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>227</v>
+        <v>502</v>
       </c>
       <c r="G73" t="s">
-        <v>228</v>
+        <v>503</v>
       </c>
       <c r="H73" t="s">
         <v>14</v>
@@ -8455,13 +8464,13 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>209</v>
+        <v>36</v>
       </c>
       <c r="B74" t="s">
-        <v>210</v>
+        <v>37</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D74" t="s">
         <v>11</v>
@@ -8470,10 +8479,10 @@
         <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="H74" t="s">
         <v>14</v>
@@ -8496,10 +8505,10 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>276</v>
+        <v>516</v>
       </c>
       <c r="B75" t="s">
-        <v>277</v>
+        <v>517</v>
       </c>
       <c r="C75" t="s">
         <v>22</v>
@@ -8511,10 +8520,10 @@
         <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>278</v>
+        <v>518</v>
       </c>
       <c r="G75" t="s">
-        <v>279</v>
+        <v>519</v>
       </c>
       <c r="H75" t="s">
         <v>14</v>
@@ -8537,13 +8546,13 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>504</v>
       </c>
       <c r="B76" t="s">
-        <v>53</v>
+        <v>505</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
         <v>11</v>
@@ -8551,8 +8560,11 @@
       <c r="E76" t="s">
         <v>12</v>
       </c>
+      <c r="F76" t="s">
+        <v>506</v>
+      </c>
       <c r="G76" t="s">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="H76" t="s">
         <v>14</v>
@@ -8575,10 +8587,10 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>300</v>
+        <v>544</v>
       </c>
       <c r="B77" t="s">
-        <v>301</v>
+        <v>545</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
@@ -8590,10 +8602,10 @@
         <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>302</v>
+        <v>546</v>
       </c>
       <c r="G77" t="s">
-        <v>303</v>
+        <v>547</v>
       </c>
       <c r="H77" t="s">
         <v>14</v>
@@ -8616,10 +8628,10 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>288</v>
+        <v>583</v>
       </c>
       <c r="B78" t="s">
-        <v>289</v>
+        <v>584</v>
       </c>
       <c r="C78" t="s">
         <v>17</v>
@@ -8628,13 +8640,10 @@
         <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" t="s">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="G78" t="s">
-        <v>291</v>
+        <v>585</v>
       </c>
       <c r="H78" t="s">
         <v>14</v>
@@ -8657,25 +8666,22 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>348</v>
+        <v>580</v>
       </c>
       <c r="B79" t="s">
-        <v>349</v>
+        <v>581</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D79" t="s">
         <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>23</v>
-      </c>
-      <c r="F79" t="s">
-        <v>350</v>
+        <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>351</v>
+        <v>582</v>
       </c>
       <c r="H79" t="s">
         <v>14</v>
@@ -8698,13 +8704,13 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>336</v>
+        <v>113</v>
       </c>
       <c r="B80" t="s">
-        <v>337</v>
+        <v>114</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D80" t="s">
         <v>11</v>
@@ -8713,10 +8719,10 @@
         <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>338</v>
+        <v>115</v>
       </c>
       <c r="G80" t="s">
-        <v>339</v>
+        <v>116</v>
       </c>
       <c r="H80" t="s">
         <v>14</v>
@@ -8739,13 +8745,13 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>45</v>
+        <v>576</v>
       </c>
       <c r="B81" t="s">
-        <v>46</v>
+        <v>577</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D81" t="s">
         <v>11</v>
@@ -8753,8 +8759,11 @@
       <c r="E81" t="s">
         <v>12</v>
       </c>
+      <c r="F81" t="s">
+        <v>578</v>
+      </c>
       <c r="G81" t="s">
-        <v>47</v>
+        <v>579</v>
       </c>
       <c r="H81" t="s">
         <v>14</v>
@@ -8777,10 +8786,10 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>392</v>
+        <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>393</v>
+        <v>106</v>
       </c>
       <c r="C82" t="s">
         <v>22</v>
@@ -8789,13 +8798,13 @@
         <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>394</v>
+        <v>107</v>
       </c>
       <c r="G82" t="s">
-        <v>395</v>
+        <v>108</v>
       </c>
       <c r="H82" t="s">
         <v>14</v>
@@ -8818,40 +8827,40 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>436</v>
+        <v>633</v>
       </c>
       <c r="B83" t="s">
-        <v>437</v>
+        <v>634</v>
       </c>
       <c r="C83" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D83" t="s">
         <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>438</v>
+        <v>635</v>
       </c>
       <c r="G83" t="s">
-        <v>439</v>
+        <v>636</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I83" t="s">
         <v>14</v>
       </c>
       <c r="J83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83">
         <v>0</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -8859,10 +8868,10 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>432</v>
+        <v>136</v>
       </c>
       <c r="B84" t="s">
-        <v>433</v>
+        <v>137</v>
       </c>
       <c r="C84" t="s">
         <v>22</v>
@@ -8874,25 +8883,25 @@
         <v>23</v>
       </c>
       <c r="F84" t="s">
-        <v>434</v>
+        <v>138</v>
       </c>
       <c r="G84" t="s">
-        <v>435</v>
+        <v>139</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I84" t="s">
         <v>14</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84">
         <v>0</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -8900,10 +8909,10 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>424</v>
+        <v>125</v>
       </c>
       <c r="B85" t="s">
-        <v>425</v>
+        <v>126</v>
       </c>
       <c r="C85" t="s">
         <v>17</v>
@@ -8915,25 +8924,25 @@
         <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>426</v>
+        <v>127</v>
       </c>
       <c r="G85" t="s">
-        <v>427</v>
+        <v>128</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I85" t="s">
         <v>14</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85">
         <v>0</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -8941,40 +8950,40 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>408</v>
+        <v>167</v>
       </c>
       <c r="B86" t="s">
-        <v>409</v>
+        <v>168</v>
       </c>
       <c r="C86" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D86" t="s">
         <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F86" t="s">
-        <v>410</v>
+        <v>169</v>
       </c>
       <c r="G86" t="s">
-        <v>411</v>
+        <v>170</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I86" t="s">
         <v>14</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86">
         <v>0</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -8982,40 +8991,37 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>500</v>
+        <v>195</v>
       </c>
       <c r="B87" t="s">
-        <v>501</v>
+        <v>196</v>
       </c>
       <c r="C87" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D87" t="s">
         <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" t="s">
-        <v>502</v>
+        <v>23</v>
       </c>
       <c r="G87" t="s">
-        <v>503</v>
+        <v>197</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I87" t="s">
         <v>14</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87">
         <v>0</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -9023,40 +9029,40 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>36</v>
+        <v>217</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>218</v>
       </c>
       <c r="C88" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
         <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>219</v>
       </c>
       <c r="G88" t="s">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I88" t="s">
         <v>14</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88">
         <v>0</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -9064,10 +9070,10 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>516</v>
+        <v>213</v>
       </c>
       <c r="B89" t="s">
-        <v>517</v>
+        <v>214</v>
       </c>
       <c r="C89" t="s">
         <v>22</v>
@@ -9076,28 +9082,28 @@
         <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F89" t="s">
-        <v>518</v>
+        <v>215</v>
       </c>
       <c r="G89" t="s">
-        <v>519</v>
+        <v>216</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I89" t="s">
         <v>14</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89">
         <v>0</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -9105,10 +9111,10 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>504</v>
+        <v>284</v>
       </c>
       <c r="B90" t="s">
-        <v>505</v>
+        <v>285</v>
       </c>
       <c r="C90" t="s">
         <v>17</v>
@@ -9117,28 +9123,28 @@
         <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F90" t="s">
-        <v>506</v>
+        <v>286</v>
       </c>
       <c r="G90" t="s">
-        <v>507</v>
+        <v>287</v>
       </c>
       <c r="H90" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I90" t="s">
         <v>14</v>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90">
         <v>0</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -9146,13 +9152,13 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>544</v>
+        <v>388</v>
       </c>
       <c r="B91" t="s">
-        <v>545</v>
+        <v>389</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D91" t="s">
         <v>11</v>
@@ -9161,25 +9167,25 @@
         <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>546</v>
+        <v>390</v>
       </c>
       <c r="G91" t="s">
-        <v>547</v>
+        <v>391</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I91" t="s">
         <v>14</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91">
         <v>0</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -9187,10 +9193,10 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>583</v>
+        <v>416</v>
       </c>
       <c r="B92" t="s">
-        <v>584</v>
+        <v>417</v>
       </c>
       <c r="C92" t="s">
         <v>17</v>
@@ -9199,25 +9205,28 @@
         <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="F92" t="s">
+        <v>418</v>
       </c>
       <c r="G92" t="s">
-        <v>585</v>
+        <v>419</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I92" t="s">
         <v>14</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92">
         <v>0</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -9225,10 +9234,10 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>580</v>
+        <v>83</v>
       </c>
       <c r="B93" t="s">
-        <v>581</v>
+        <v>84</v>
       </c>
       <c r="C93" t="s">
         <v>17</v>
@@ -9240,22 +9249,22 @@
         <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>582</v>
+        <v>85</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I93" t="s">
         <v>14</v>
       </c>
       <c r="J93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93">
         <v>0</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93">
         <v>0</v>
@@ -9263,13 +9272,13 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" t="s">
-        <v>113</v>
+        <v>524</v>
       </c>
       <c r="B94" t="s">
-        <v>114</v>
+        <v>525</v>
       </c>
       <c r="C94" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="D94" t="s">
         <v>11</v>
@@ -9278,25 +9287,25 @@
         <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>115</v>
+        <v>526</v>
       </c>
       <c r="G94" t="s">
-        <v>116</v>
+        <v>527</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I94" t="s">
         <v>14</v>
       </c>
       <c r="J94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94">
         <v>0</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -9304,40 +9313,40 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="B95" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="C95" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D95" t="s">
         <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F95" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G95" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I95" t="s">
         <v>14</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95">
         <v>0</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -9345,13 +9354,13 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>536</v>
       </c>
       <c r="B96" t="s">
-        <v>106</v>
+        <v>537</v>
       </c>
       <c r="C96" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D96" t="s">
         <v>11</v>
@@ -9360,25 +9369,25 @@
         <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>107</v>
+        <v>538</v>
       </c>
       <c r="G96" t="s">
-        <v>108</v>
+        <v>539</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I96" t="s">
         <v>14</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96">
         <v>0</v>
       </c>
       <c r="L96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96">
         <v>0</v>
@@ -9386,10 +9395,10 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>187</v>
+        <v>572</v>
       </c>
       <c r="B97" t="s">
-        <v>188</v>
+        <v>573</v>
       </c>
       <c r="C97" t="s">
         <v>17</v>
@@ -9401,16 +9410,16 @@
         <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>189</v>
+        <v>574</v>
       </c>
       <c r="G97" t="s">
-        <v>190</v>
+        <v>575</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I97" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -9419,21 +9428,21 @@
         <v>0</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>590</v>
+        <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>591</v>
+        <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D98" t="s">
         <v>11</v>
@@ -9442,10 +9451,10 @@
         <v>23</v>
       </c>
       <c r="F98" t="s">
-        <v>592</v>
+        <v>103</v>
       </c>
       <c r="G98" t="s">
-        <v>593</v>
+        <v>104</v>
       </c>
       <c r="H98" t="s">
         <v>26</v>
@@ -9468,10 +9477,10 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="B99" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="C99" t="s">
         <v>17</v>
@@ -9480,13 +9489,13 @@
         <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="G99" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="H99" t="s">
         <v>26</v>
@@ -9509,10 +9518,10 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>641</v>
+        <v>586</v>
       </c>
       <c r="B100" t="s">
-        <v>642</v>
+        <v>587</v>
       </c>
       <c r="C100" t="s">
         <v>17</v>
@@ -9521,28 +9530,28 @@
         <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F100" t="s">
-        <v>643</v>
+        <v>588</v>
       </c>
       <c r="G100" t="s">
-        <v>644</v>
+        <v>589</v>
       </c>
       <c r="H100" t="s">
         <v>26</v>
       </c>
       <c r="I100" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -9550,13 +9559,13 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>93</v>
+        <v>621</v>
       </c>
       <c r="B101" t="s">
-        <v>94</v>
+        <v>622</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D101" t="s">
         <v>11</v>
@@ -9565,10 +9574,10 @@
         <v>23</v>
       </c>
       <c r="F101" t="s">
-        <v>95</v>
+        <v>623</v>
       </c>
       <c r="G101" t="s">
-        <v>96</v>
+        <v>624</v>
       </c>
       <c r="H101" t="s">
         <v>26</v>
@@ -9591,10 +9600,10 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B102" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C102" t="s">
         <v>17</v>
@@ -9606,25 +9615,25 @@
         <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="G102" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="H102" t="s">
         <v>26</v>
       </c>
       <c r="I102" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -9632,25 +9641,25 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>27</v>
+        <v>629</v>
       </c>
       <c r="B103" t="s">
-        <v>28</v>
+        <v>630</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
         <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>631</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>632</v>
       </c>
       <c r="H103" t="s">
         <v>26</v>
@@ -9673,25 +9682,25 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="B104" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D104" t="s">
         <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F104" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="G104" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="H104" t="s">
         <v>26</v>
@@ -9714,13 +9723,13 @@
     </row>
     <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>688</v>
+        <v>669</v>
       </c>
       <c r="B105" t="s">
-        <v>689</v>
+        <v>670</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D105" t="s">
         <v>11</v>
@@ -9728,11 +9737,8 @@
       <c r="E105" t="s">
         <v>12</v>
       </c>
-      <c r="F105" t="s">
-        <v>690</v>
-      </c>
       <c r="G105" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="H105" t="s">
         <v>26</v>
@@ -9755,10 +9761,10 @@
     </row>
     <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="B106" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="C106" t="s">
         <v>17</v>
@@ -9770,10 +9776,10 @@
         <v>23</v>
       </c>
       <c r="F106" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="G106" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="H106" t="s">
         <v>26</v>
@@ -9796,25 +9802,25 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" t="s">
-        <v>680</v>
+        <v>140</v>
       </c>
       <c r="B107" t="s">
-        <v>681</v>
+        <v>141</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D107" t="s">
         <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F107" t="s">
-        <v>682</v>
+        <v>142</v>
       </c>
       <c r="G107" t="s">
-        <v>683</v>
+        <v>143</v>
       </c>
       <c r="H107" t="s">
         <v>26</v>
@@ -9837,13 +9843,13 @@
     </row>
     <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B108" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C108" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D108" t="s">
         <v>11</v>
@@ -9852,22 +9858,22 @@
         <v>12</v>
       </c>
       <c r="G108" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H108" t="s">
         <v>26</v>
       </c>
       <c r="I108" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -9875,25 +9881,25 @@
     </row>
     <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>692</v>
+        <v>716</v>
       </c>
       <c r="B109" t="s">
-        <v>693</v>
+        <v>717</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D109" t="s">
         <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F109" t="s">
-        <v>694</v>
+        <v>718</v>
       </c>
       <c r="G109" t="s">
-        <v>695</v>
+        <v>719</v>
       </c>
       <c r="H109" t="s">
         <v>26</v>
@@ -9916,25 +9922,25 @@
     </row>
     <row r="110" spans="1:13">
       <c r="A110" t="s">
-        <v>712</v>
+        <v>752</v>
       </c>
       <c r="B110" t="s">
-        <v>713</v>
+        <v>753</v>
       </c>
       <c r="C110" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D110" t="s">
         <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F110" t="s">
-        <v>714</v>
+        <v>754</v>
       </c>
       <c r="G110" t="s">
-        <v>715</v>
+        <v>755</v>
       </c>
       <c r="H110" t="s">
         <v>26</v>
@@ -9957,10 +9963,10 @@
     </row>
     <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>708</v>
+        <v>756</v>
       </c>
       <c r="B111" t="s">
-        <v>709</v>
+        <v>757</v>
       </c>
       <c r="C111" t="s">
         <v>17</v>
@@ -9972,10 +9978,10 @@
         <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>710</v>
+        <v>758</v>
       </c>
       <c r="G111" t="s">
-        <v>711</v>
+        <v>759</v>
       </c>
       <c r="H111" t="s">
         <v>26</v>
@@ -9998,13 +10004,13 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>728</v>
+        <v>768</v>
       </c>
       <c r="B112" t="s">
-        <v>729</v>
+        <v>769</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D112" t="s">
         <v>11</v>
@@ -10013,10 +10019,10 @@
         <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>730</v>
+        <v>770</v>
       </c>
       <c r="G112" t="s">
-        <v>731</v>
+        <v>771</v>
       </c>
       <c r="H112" t="s">
         <v>26</v>
@@ -10039,13 +10045,13 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>136</v>
+        <v>800</v>
       </c>
       <c r="B113" t="s">
-        <v>137</v>
+        <v>801</v>
       </c>
       <c r="C113" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D113" t="s">
         <v>11</v>
@@ -10054,16 +10060,16 @@
         <v>23</v>
       </c>
       <c r="F113" t="s">
-        <v>138</v>
+        <v>802</v>
       </c>
       <c r="G113" t="s">
-        <v>139</v>
+        <v>803</v>
       </c>
       <c r="H113" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I113" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -10072,18 +10078,18 @@
         <v>0</v>
       </c>
       <c r="L113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>720</v>
+        <v>796</v>
       </c>
       <c r="B114" t="s">
-        <v>721</v>
+        <v>797</v>
       </c>
       <c r="C114" t="s">
         <v>22</v>
@@ -10095,13 +10101,13 @@
         <v>23</v>
       </c>
       <c r="F114" t="s">
-        <v>722</v>
+        <v>798</v>
       </c>
       <c r="G114" t="s">
-        <v>723</v>
+        <v>799</v>
       </c>
       <c r="H114" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I114" t="s">
         <v>26</v>
@@ -10110,24 +10116,24 @@
         <v>0</v>
       </c>
       <c r="K114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114">
         <v>0</v>
       </c>
       <c r="M114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>736</v>
+        <v>844</v>
       </c>
       <c r="B115" t="s">
-        <v>737</v>
+        <v>845</v>
       </c>
       <c r="C115" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D115" t="s">
         <v>11</v>
@@ -10136,13 +10142,13 @@
         <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>738</v>
+        <v>846</v>
       </c>
       <c r="G115" t="s">
-        <v>739</v>
+        <v>847</v>
       </c>
       <c r="H115" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I115" t="s">
         <v>26</v>
@@ -10151,24 +10157,24 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115">
         <v>0</v>
       </c>
       <c r="M115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>732</v>
+        <v>872</v>
       </c>
       <c r="B116" t="s">
-        <v>733</v>
+        <v>873</v>
       </c>
       <c r="C116" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D116" t="s">
         <v>11</v>
@@ -10177,13 +10183,13 @@
         <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>734</v>
+        <v>874</v>
       </c>
       <c r="G116" t="s">
-        <v>735</v>
+        <v>875</v>
       </c>
       <c r="H116" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I116" t="s">
         <v>26</v>
@@ -10192,21 +10198,21 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L116">
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>748</v>
+        <v>187</v>
       </c>
       <c r="B117" t="s">
-        <v>749</v>
+        <v>188</v>
       </c>
       <c r="C117" t="s">
         <v>17</v>
@@ -10215,16 +10221,16 @@
         <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>750</v>
+        <v>189</v>
       </c>
       <c r="G117" t="s">
-        <v>751</v>
+        <v>190</v>
       </c>
       <c r="H117" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I117" t="s">
         <v>26</v>
@@ -10233,36 +10239,36 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L117">
         <v>0</v>
       </c>
       <c r="M117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>744</v>
+        <v>590</v>
       </c>
       <c r="B118" t="s">
-        <v>745</v>
+        <v>591</v>
       </c>
       <c r="C118" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D118" t="s">
         <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F118" t="s">
-        <v>746</v>
+        <v>592</v>
       </c>
       <c r="G118" t="s">
-        <v>747</v>
+        <v>593</v>
       </c>
       <c r="H118" t="s">
         <v>26</v>
@@ -10285,10 +10291,10 @@
     </row>
     <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>125</v>
+        <v>613</v>
       </c>
       <c r="B119" t="s">
-        <v>126</v>
+        <v>614</v>
       </c>
       <c r="C119" t="s">
         <v>17</v>
@@ -10297,28 +10303,28 @@
         <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F119" t="s">
-        <v>127</v>
+        <v>615</v>
       </c>
       <c r="G119" t="s">
-        <v>128</v>
+        <v>616</v>
       </c>
       <c r="H119" t="s">
         <v>26</v>
       </c>
       <c r="I119" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J119">
         <v>0</v>
       </c>
       <c r="K119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M119">
         <v>0</v>
@@ -10326,25 +10332,25 @@
     </row>
     <row r="120" spans="1:13">
       <c r="A120" t="s">
-        <v>784</v>
+        <v>93</v>
       </c>
       <c r="B120" t="s">
-        <v>785</v>
+        <v>94</v>
       </c>
       <c r="C120" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D120" t="s">
         <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F120" t="s">
-        <v>786</v>
+        <v>95</v>
       </c>
       <c r="G120" t="s">
-        <v>787</v>
+        <v>96</v>
       </c>
       <c r="H120" t="s">
         <v>26</v>
@@ -10367,10 +10373,10 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="B121" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="C121" t="s">
         <v>17</v>
@@ -10379,28 +10385,28 @@
         <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F121" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="H121" t="s">
         <v>26</v>
       </c>
       <c r="I121" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J121">
         <v>0</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M121">
         <v>0</v>
@@ -10408,13 +10414,13 @@
     </row>
     <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>812</v>
+        <v>645</v>
       </c>
       <c r="B122" t="s">
-        <v>813</v>
+        <v>646</v>
       </c>
       <c r="C122" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D122" t="s">
         <v>11</v>
@@ -10423,10 +10429,10 @@
         <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>814</v>
+        <v>647</v>
       </c>
       <c r="G122" t="s">
-        <v>815</v>
+        <v>648</v>
       </c>
       <c r="H122" t="s">
         <v>26</v>
@@ -10449,10 +10455,10 @@
     </row>
     <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>828</v>
+        <v>688</v>
       </c>
       <c r="B123" t="s">
-        <v>829</v>
+        <v>689</v>
       </c>
       <c r="C123" t="s">
         <v>17</v>
@@ -10464,10 +10470,10 @@
         <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>830</v>
+        <v>690</v>
       </c>
       <c r="G123" t="s">
-        <v>831</v>
+        <v>691</v>
       </c>
       <c r="H123" t="s">
         <v>26</v>
@@ -10490,13 +10496,13 @@
     </row>
     <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>20</v>
+        <v>684</v>
       </c>
       <c r="B124" t="s">
-        <v>21</v>
+        <v>685</v>
       </c>
       <c r="C124" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D124" t="s">
         <v>11</v>
@@ -10505,10 +10511,10 @@
         <v>23</v>
       </c>
       <c r="F124" t="s">
-        <v>24</v>
+        <v>686</v>
       </c>
       <c r="G124" t="s">
-        <v>25</v>
+        <v>687</v>
       </c>
       <c r="H124" t="s">
         <v>26</v>
@@ -10531,25 +10537,25 @@
     </row>
     <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>840</v>
+        <v>680</v>
       </c>
       <c r="B125" t="s">
-        <v>841</v>
+        <v>681</v>
       </c>
       <c r="C125" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D125" t="s">
         <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F125" t="s">
-        <v>842</v>
+        <v>682</v>
       </c>
       <c r="G125" t="s">
-        <v>843</v>
+        <v>683</v>
       </c>
       <c r="H125" t="s">
         <v>26</v>
@@ -10572,25 +10578,25 @@
     </row>
     <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>171</v>
+        <v>692</v>
       </c>
       <c r="B126" t="s">
-        <v>172</v>
+        <v>693</v>
       </c>
       <c r="C126" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D126" t="s">
         <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>173</v>
+        <v>694</v>
       </c>
       <c r="G126" t="s">
-        <v>174</v>
+        <v>695</v>
       </c>
       <c r="H126" t="s">
         <v>26</v>
@@ -10613,25 +10619,25 @@
     </row>
     <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>864</v>
+        <v>712</v>
       </c>
       <c r="B127" t="s">
-        <v>865</v>
+        <v>713</v>
       </c>
       <c r="C127" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D127" t="s">
         <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F127" t="s">
-        <v>866</v>
+        <v>714</v>
       </c>
       <c r="G127" t="s">
-        <v>867</v>
+        <v>715</v>
       </c>
       <c r="H127" t="s">
         <v>26</v>
@@ -10654,13 +10660,13 @@
     </row>
     <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>884</v>
+        <v>708</v>
       </c>
       <c r="B128" t="s">
-        <v>885</v>
+        <v>709</v>
       </c>
       <c r="C128" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D128" t="s">
         <v>11</v>
@@ -10669,10 +10675,10 @@
         <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>886</v>
+        <v>710</v>
       </c>
       <c r="G128" t="s">
-        <v>887</v>
+        <v>711</v>
       </c>
       <c r="H128" t="s">
         <v>26</v>
@@ -10695,10 +10701,10 @@
     </row>
     <row r="129" spans="1:13">
       <c r="A129" t="s">
-        <v>167</v>
+        <v>728</v>
       </c>
       <c r="B129" t="s">
-        <v>168</v>
+        <v>729</v>
       </c>
       <c r="C129" t="s">
         <v>17</v>
@@ -10707,28 +10713,28 @@
         <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>169</v>
+        <v>730</v>
       </c>
       <c r="G129" t="s">
-        <v>170</v>
+        <v>731</v>
       </c>
       <c r="H129" t="s">
         <v>26</v>
       </c>
       <c r="I129" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J129">
         <v>0</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M129">
         <v>0</v>
@@ -10736,25 +10742,25 @@
     </row>
     <row r="130" spans="1:13">
       <c r="A130" t="s">
-        <v>892</v>
+        <v>720</v>
       </c>
       <c r="B130" t="s">
-        <v>893</v>
+        <v>721</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D130" t="s">
         <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F130" t="s">
-        <v>894</v>
+        <v>722</v>
       </c>
       <c r="G130" t="s">
-        <v>895</v>
+        <v>723</v>
       </c>
       <c r="H130" t="s">
         <v>26</v>
@@ -10777,13 +10783,13 @@
     </row>
     <row r="131" spans="1:13">
       <c r="A131" t="s">
-        <v>904</v>
+        <v>736</v>
       </c>
       <c r="B131" t="s">
-        <v>905</v>
+        <v>737</v>
       </c>
       <c r="C131" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D131" t="s">
         <v>11</v>
@@ -10792,10 +10798,10 @@
         <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>906</v>
+        <v>738</v>
       </c>
       <c r="G131" t="s">
-        <v>907</v>
+        <v>739</v>
       </c>
       <c r="H131" t="s">
         <v>26</v>
@@ -10818,22 +10824,25 @@
     </row>
     <row r="132" spans="1:13">
       <c r="A132" t="s">
-        <v>206</v>
+        <v>732</v>
       </c>
       <c r="B132" t="s">
-        <v>207</v>
+        <v>733</v>
       </c>
       <c r="C132" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D132" t="s">
         <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="F132" t="s">
+        <v>734</v>
       </c>
       <c r="G132" t="s">
-        <v>208</v>
+        <v>735</v>
       </c>
       <c r="H132" t="s">
         <v>26</v>
@@ -10856,10 +10865,10 @@
     </row>
     <row r="133" spans="1:13">
       <c r="A133" t="s">
-        <v>198</v>
+        <v>748</v>
       </c>
       <c r="B133" t="s">
-        <v>199</v>
+        <v>749</v>
       </c>
       <c r="C133" t="s">
         <v>17</v>
@@ -10868,28 +10877,28 @@
         <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F133" t="s">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="G133" t="s">
-        <v>201</v>
+        <v>751</v>
       </c>
       <c r="H133" t="s">
         <v>26</v>
       </c>
       <c r="I133" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J133">
         <v>0</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M133">
         <v>0</v>
@@ -10897,37 +10906,40 @@
     </row>
     <row r="134" spans="1:13">
       <c r="A134" t="s">
-        <v>195</v>
+        <v>744</v>
       </c>
       <c r="B134" t="s">
-        <v>196</v>
+        <v>745</v>
       </c>
       <c r="C134" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D134" t="s">
         <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="F134" t="s">
+        <v>746</v>
       </c>
       <c r="G134" t="s">
-        <v>197</v>
+        <v>747</v>
       </c>
       <c r="H134" t="s">
         <v>26</v>
       </c>
       <c r="I134" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
       <c r="K134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M134">
         <v>0</v>
@@ -10935,13 +10947,13 @@
     </row>
     <row r="135" spans="1:13">
       <c r="A135" t="s">
-        <v>179</v>
+        <v>784</v>
       </c>
       <c r="B135" t="s">
-        <v>180</v>
+        <v>785</v>
       </c>
       <c r="C135" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D135" t="s">
         <v>11</v>
@@ -10950,10 +10962,10 @@
         <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>181</v>
+        <v>786</v>
       </c>
       <c r="G135" t="s">
-        <v>182</v>
+        <v>787</v>
       </c>
       <c r="H135" t="s">
         <v>26</v>
@@ -10976,10 +10988,10 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136" t="s">
-        <v>245</v>
+        <v>812</v>
       </c>
       <c r="B136" t="s">
-        <v>246</v>
+        <v>813</v>
       </c>
       <c r="C136" t="s">
         <v>22</v>
@@ -10988,13 +11000,13 @@
         <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>247</v>
+        <v>814</v>
       </c>
       <c r="G136" t="s">
-        <v>248</v>
+        <v>815</v>
       </c>
       <c r="H136" t="s">
         <v>26</v>
@@ -11017,25 +11029,25 @@
     </row>
     <row r="137" spans="1:13">
       <c r="A137" t="s">
-        <v>233</v>
+        <v>828</v>
       </c>
       <c r="B137" t="s">
-        <v>234</v>
+        <v>829</v>
       </c>
       <c r="C137" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D137" t="s">
         <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>235</v>
+        <v>830</v>
       </c>
       <c r="G137" t="s">
-        <v>236</v>
+        <v>831</v>
       </c>
       <c r="H137" t="s">
         <v>26</v>
@@ -11058,25 +11070,25 @@
     </row>
     <row r="138" spans="1:13">
       <c r="A138" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B138" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C138" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D138" t="s">
         <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F138" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="G138" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="H138" t="s">
         <v>26</v>
@@ -11099,10 +11111,10 @@
     </row>
     <row r="139" spans="1:13">
       <c r="A139" t="s">
-        <v>62</v>
+        <v>840</v>
       </c>
       <c r="B139" t="s">
-        <v>63</v>
+        <v>841</v>
       </c>
       <c r="C139" t="s">
         <v>22</v>
@@ -11114,10 +11126,10 @@
         <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>64</v>
+        <v>842</v>
       </c>
       <c r="G139" t="s">
-        <v>65</v>
+        <v>843</v>
       </c>
       <c r="H139" t="s">
         <v>26</v>
@@ -11140,13 +11152,13 @@
     </row>
     <row r="140" spans="1:13">
       <c r="A140" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="B140" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="C140" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D140" t="s">
         <v>11</v>
@@ -11155,10 +11167,10 @@
         <v>23</v>
       </c>
       <c r="F140" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="G140" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="H140" t="s">
         <v>26</v>
@@ -11181,13 +11193,13 @@
     </row>
     <row r="141" spans="1:13">
       <c r="A141" t="s">
-        <v>221</v>
+        <v>864</v>
       </c>
       <c r="B141" t="s">
-        <v>222</v>
+        <v>865</v>
       </c>
       <c r="C141" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D141" t="s">
         <v>11</v>
@@ -11196,25 +11208,25 @@
         <v>23</v>
       </c>
       <c r="F141" t="s">
-        <v>223</v>
+        <v>866</v>
       </c>
       <c r="G141" t="s">
-        <v>224</v>
+        <v>867</v>
       </c>
       <c r="H141" t="s">
         <v>26</v>
       </c>
       <c r="I141" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J141">
         <v>0</v>
       </c>
       <c r="K141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M141">
         <v>0</v>
@@ -11222,40 +11234,40 @@
     </row>
     <row r="142" spans="1:13">
       <c r="A142" t="s">
-        <v>217</v>
+        <v>884</v>
       </c>
       <c r="B142" t="s">
-        <v>218</v>
+        <v>885</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D142" t="s">
         <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>219</v>
+        <v>886</v>
       </c>
       <c r="G142" t="s">
-        <v>220</v>
+        <v>887</v>
       </c>
       <c r="H142" t="s">
         <v>26</v>
       </c>
       <c r="I142" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J142">
         <v>0</v>
       </c>
       <c r="K142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M142">
         <v>0</v>
@@ -11263,40 +11275,40 @@
     </row>
     <row r="143" spans="1:13">
       <c r="A143" t="s">
-        <v>213</v>
+        <v>892</v>
       </c>
       <c r="B143" t="s">
-        <v>214</v>
+        <v>893</v>
       </c>
       <c r="C143" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D143" t="s">
         <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>215</v>
+        <v>894</v>
       </c>
       <c r="G143" t="s">
-        <v>216</v>
+        <v>895</v>
       </c>
       <c r="H143" t="s">
         <v>26</v>
       </c>
       <c r="I143" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J143">
         <v>0</v>
       </c>
       <c r="K143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M143">
         <v>0</v>
@@ -11304,10 +11316,10 @@
     </row>
     <row r="144" spans="1:13">
       <c r="A144" t="s">
-        <v>284</v>
+        <v>904</v>
       </c>
       <c r="B144" t="s">
-        <v>285</v>
+        <v>905</v>
       </c>
       <c r="C144" t="s">
         <v>17</v>
@@ -11316,28 +11328,28 @@
         <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>906</v>
       </c>
       <c r="G144" t="s">
-        <v>287</v>
+        <v>907</v>
       </c>
       <c r="H144" t="s">
         <v>26</v>
       </c>
       <c r="I144" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J144">
         <v>0</v>
       </c>
       <c r="K144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M144">
         <v>0</v>
@@ -11345,25 +11357,22 @@
     </row>
     <row r="145" spans="1:13">
       <c r="A145" t="s">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="B145" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="C145" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D145" t="s">
         <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>12</v>
-      </c>
-      <c r="F145" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G145" t="s">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="H145" t="s">
         <v>26</v>
@@ -11386,10 +11395,10 @@
     </row>
     <row r="146" spans="1:13">
       <c r="A146" t="s">
-        <v>280</v>
+        <v>179</v>
       </c>
       <c r="B146" t="s">
-        <v>281</v>
+        <v>180</v>
       </c>
       <c r="C146" t="s">
         <v>17</v>
@@ -11398,13 +11407,13 @@
         <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>181</v>
       </c>
       <c r="G146" t="s">
-        <v>283</v>
+        <v>182</v>
       </c>
       <c r="H146" t="s">
         <v>26</v>
@@ -11427,25 +11436,25 @@
     </row>
     <row r="147" spans="1:13">
       <c r="A147" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="B147" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="C147" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D147" t="s">
         <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F147" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="G147" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="H147" t="s">
         <v>26</v>
@@ -11468,22 +11477,25 @@
     </row>
     <row r="148" spans="1:13">
       <c r="A148" t="s">
-        <v>59</v>
+        <v>233</v>
       </c>
       <c r="B148" t="s">
-        <v>60</v>
+        <v>234</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D148" t="s">
         <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="F148" t="s">
+        <v>235</v>
       </c>
       <c r="G148" t="s">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="H148" t="s">
         <v>26</v>
@@ -11506,25 +11518,25 @@
     </row>
     <row r="149" spans="1:13">
       <c r="A149" t="s">
-        <v>268</v>
+        <v>66</v>
       </c>
       <c r="B149" t="s">
-        <v>269</v>
+        <v>67</v>
       </c>
       <c r="C149" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D149" t="s">
         <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>270</v>
+        <v>69</v>
       </c>
       <c r="G149" t="s">
-        <v>271</v>
+        <v>70</v>
       </c>
       <c r="H149" t="s">
         <v>26</v>
@@ -11547,13 +11559,13 @@
     </row>
     <row r="150" spans="1:13">
       <c r="A150" t="s">
-        <v>265</v>
+        <v>62</v>
       </c>
       <c r="B150" t="s">
-        <v>266</v>
+        <v>63</v>
       </c>
       <c r="C150" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D150" t="s">
         <v>11</v>
@@ -11561,8 +11573,11 @@
       <c r="E150" t="s">
         <v>12</v>
       </c>
+      <c r="F150" t="s">
+        <v>64</v>
+      </c>
       <c r="G150" t="s">
-        <v>267</v>
+        <v>65</v>
       </c>
       <c r="H150" t="s">
         <v>26</v>
@@ -11585,25 +11600,25 @@
     </row>
     <row r="151" spans="1:13">
       <c r="A151" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="B151" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="C151" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D151" t="s">
         <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F151" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G151" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="H151" t="s">
         <v>26</v>
@@ -11626,25 +11641,25 @@
     </row>
     <row r="152" spans="1:13">
       <c r="A152" t="s">
-        <v>257</v>
+        <v>41</v>
       </c>
       <c r="B152" t="s">
-        <v>258</v>
+        <v>42</v>
       </c>
       <c r="C152" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D152" t="s">
         <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>259</v>
+        <v>43</v>
       </c>
       <c r="G152" t="s">
-        <v>260</v>
+        <v>44</v>
       </c>
       <c r="H152" t="s">
         <v>26</v>
@@ -11667,10 +11682,10 @@
     </row>
     <row r="153" spans="1:13">
       <c r="A153" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="B153" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="C153" t="s">
         <v>17</v>
@@ -11679,13 +11694,13 @@
         <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F153" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="G153" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="H153" t="s">
         <v>26</v>
@@ -11708,10 +11723,10 @@
     </row>
     <row r="154" spans="1:13">
       <c r="A154" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="B154" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="C154" t="s">
         <v>17</v>
@@ -11723,10 +11738,10 @@
         <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>318</v>
+        <v>274</v>
       </c>
       <c r="G154" t="s">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="H154" t="s">
         <v>26</v>
@@ -11749,10 +11764,10 @@
     </row>
     <row r="155" spans="1:13">
       <c r="A155" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B155" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C155" t="s">
         <v>17</v>
@@ -11761,13 +11776,10 @@
         <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>23</v>
-      </c>
-      <c r="F155" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="G155" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H155" t="s">
         <v>26</v>
@@ -11790,13 +11802,13 @@
     </row>
     <row r="156" spans="1:13">
       <c r="A156" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="B156" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="C156" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D156" t="s">
         <v>11</v>
@@ -11805,10 +11817,10 @@
         <v>23</v>
       </c>
       <c r="F156" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="G156" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="H156" t="s">
         <v>26</v>
@@ -11831,10 +11843,10 @@
     </row>
     <row r="157" spans="1:13">
       <c r="A157" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="B157" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="C157" t="s">
         <v>10</v>
@@ -11843,13 +11855,10 @@
         <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>23</v>
-      </c>
-      <c r="F157" t="s">
-        <v>310</v>
+        <v>12</v>
       </c>
       <c r="G157" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="H157" t="s">
         <v>26</v>
@@ -11872,25 +11881,25 @@
     </row>
     <row r="158" spans="1:13">
       <c r="A158" t="s">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="B158" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="C158" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D158" t="s">
         <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="G158" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="H158" t="s">
         <v>26</v>
@@ -11913,13 +11922,13 @@
     </row>
     <row r="159" spans="1:13">
       <c r="A159" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="B159" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="C159" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D159" t="s">
         <v>11</v>
@@ -11928,10 +11937,10 @@
         <v>23</v>
       </c>
       <c r="F159" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="G159" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="H159" t="s">
         <v>26</v>
@@ -11954,25 +11963,25 @@
     </row>
     <row r="160" spans="1:13">
       <c r="A160" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="B160" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="C160" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D160" t="s">
         <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="G160" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="H160" t="s">
         <v>26</v>
@@ -11995,25 +12004,25 @@
     </row>
     <row r="161" spans="1:13">
       <c r="A161" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="B161" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="C161" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D161" t="s">
         <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="G161" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="H161" t="s">
         <v>26</v>
@@ -12036,25 +12045,25 @@
     </row>
     <row r="162" spans="1:13">
       <c r="A162" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B162" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C162" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D162" t="s">
         <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F162" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G162" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H162" t="s">
         <v>26</v>
@@ -12077,10 +12086,10 @@
     </row>
     <row r="163" spans="1:13">
       <c r="A163" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="B163" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="C163" t="s">
         <v>22</v>
@@ -12092,10 +12101,10 @@
         <v>23</v>
       </c>
       <c r="F163" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="G163" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="H163" t="s">
         <v>26</v>
@@ -12118,13 +12127,13 @@
     </row>
     <row r="164" spans="1:13">
       <c r="A164" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="B164" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="C164" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
         <v>11</v>
@@ -12133,10 +12142,10 @@
         <v>23</v>
       </c>
       <c r="F164" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="G164" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="H164" t="s">
         <v>26</v>
@@ -12159,25 +12168,25 @@
     </row>
     <row r="165" spans="1:13">
       <c r="A165" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="B165" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="C165" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D165" t="s">
         <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F165" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="G165" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="H165" t="s">
         <v>26</v>
@@ -12200,10 +12209,10 @@
     </row>
     <row r="166" spans="1:13">
       <c r="A166" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="B166" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="C166" t="s">
         <v>17</v>
@@ -12215,10 +12224,10 @@
         <v>23</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="G166" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="H166" t="s">
         <v>26</v>
@@ -12241,13 +12250,13 @@
     </row>
     <row r="167" spans="1:13">
       <c r="A167" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="B167" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="C167" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D167" t="s">
         <v>11</v>
@@ -12256,10 +12265,10 @@
         <v>23</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="G167" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="H167" t="s">
         <v>26</v>
@@ -12282,13 +12291,13 @@
     </row>
     <row r="168" spans="1:13">
       <c r="A168" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="B168" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="C168" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D168" t="s">
         <v>11</v>
@@ -12297,10 +12306,10 @@
         <v>23</v>
       </c>
       <c r="F168" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="G168" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="H168" t="s">
         <v>26</v>
@@ -12323,13 +12332,13 @@
     </row>
     <row r="169" spans="1:13">
       <c r="A169" t="s">
-        <v>376</v>
+        <v>48</v>
       </c>
       <c r="B169" t="s">
-        <v>377</v>
+        <v>49</v>
       </c>
       <c r="C169" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D169" t="s">
         <v>11</v>
@@ -12338,10 +12347,10 @@
         <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>378</v>
+        <v>50</v>
       </c>
       <c r="G169" t="s">
-        <v>379</v>
+        <v>51</v>
       </c>
       <c r="H169" t="s">
         <v>26</v>
@@ -12364,25 +12373,25 @@
     </row>
     <row r="170" spans="1:13">
       <c r="A170" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="B170" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="C170" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D170" t="s">
         <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F170" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="G170" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="H170" t="s">
         <v>26</v>
@@ -12405,10 +12414,10 @@
     </row>
     <row r="171" spans="1:13">
       <c r="A171" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="B171" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="C171" t="s">
         <v>17</v>
@@ -12420,10 +12429,10 @@
         <v>23</v>
       </c>
       <c r="F171" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="G171" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="H171" t="s">
         <v>26</v>
@@ -12446,10 +12455,10 @@
     </row>
     <row r="172" spans="1:13">
       <c r="A172" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="B172" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="C172" t="s">
         <v>22</v>
@@ -12461,10 +12470,10 @@
         <v>23</v>
       </c>
       <c r="F172" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="G172" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="H172" t="s">
         <v>26</v>
@@ -12487,10 +12496,10 @@
     </row>
     <row r="173" spans="1:13">
       <c r="A173" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="B173" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="C173" t="s">
         <v>17</v>
@@ -12499,13 +12508,13 @@
         <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F173" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="G173" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="H173" t="s">
         <v>26</v>
@@ -12528,13 +12537,13 @@
     </row>
     <row r="174" spans="1:13">
       <c r="A174" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="B174" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="C174" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D174" t="s">
         <v>11</v>
@@ -12543,10 +12552,10 @@
         <v>23</v>
       </c>
       <c r="F174" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="G174" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="H174" t="s">
         <v>26</v>
@@ -12569,10 +12578,10 @@
     </row>
     <row r="175" spans="1:13">
       <c r="A175" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="B175" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="C175" t="s">
         <v>17</v>
@@ -12584,10 +12593,10 @@
         <v>23</v>
       </c>
       <c r="F175" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="G175" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="H175" t="s">
         <v>26</v>
@@ -12610,25 +12619,25 @@
     </row>
     <row r="176" spans="1:13">
       <c r="A176" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="B176" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="C176" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D176" t="s">
         <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="G176" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="H176" t="s">
         <v>26</v>
@@ -12651,13 +12660,13 @@
     </row>
     <row r="177" spans="1:13">
       <c r="A177" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="B177" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="C177" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D177" t="s">
         <v>11</v>
@@ -12666,10 +12675,10 @@
         <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="G177" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="H177" t="s">
         <v>26</v>
@@ -12692,22 +12701,25 @@
     </row>
     <row r="178" spans="1:13">
       <c r="A178" t="s">
-        <v>90</v>
+        <v>368</v>
       </c>
       <c r="B178" t="s">
-        <v>91</v>
+        <v>369</v>
       </c>
       <c r="C178" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D178" t="s">
         <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="F178" t="s">
+        <v>370</v>
       </c>
       <c r="G178" t="s">
-        <v>92</v>
+        <v>371</v>
       </c>
       <c r="H178" t="s">
         <v>26</v>
@@ -12730,25 +12742,25 @@
     </row>
     <row r="179" spans="1:13">
       <c r="A179" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="B179" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="C179" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D179" t="s">
         <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F179" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="G179" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="H179" t="s">
         <v>26</v>
@@ -12771,13 +12783,13 @@
     </row>
     <row r="180" spans="1:13">
       <c r="A180" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="B180" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="C180" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D180" t="s">
         <v>11</v>
@@ -12786,25 +12798,25 @@
         <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="G180" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="H180" t="s">
         <v>26</v>
       </c>
       <c r="I180" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J180">
         <v>0</v>
       </c>
       <c r="K180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M180">
         <v>0</v>
@@ -12812,10 +12824,10 @@
     </row>
     <row r="181" spans="1:13">
       <c r="A181" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="B181" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="C181" t="s">
         <v>17</v>
@@ -12827,10 +12839,10 @@
         <v>23</v>
       </c>
       <c r="F181" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="G181" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="H181" t="s">
         <v>26</v>
@@ -12853,10 +12865,10 @@
     </row>
     <row r="182" spans="1:13">
       <c r="A182" t="s">
-        <v>86</v>
+        <v>352</v>
       </c>
       <c r="B182" t="s">
-        <v>87</v>
+        <v>353</v>
       </c>
       <c r="C182" t="s">
         <v>17</v>
@@ -12865,13 +12877,13 @@
         <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F182" t="s">
-        <v>88</v>
+        <v>354</v>
       </c>
       <c r="G182" t="s">
-        <v>89</v>
+        <v>355</v>
       </c>
       <c r="H182" t="s">
         <v>26</v>
@@ -12894,10 +12906,10 @@
     </row>
     <row r="183" spans="1:13">
       <c r="A183" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="B183" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="C183" t="s">
         <v>17</v>
@@ -12909,10 +12921,10 @@
         <v>29</v>
       </c>
       <c r="F183" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="G183" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="H183" t="s">
         <v>26</v>
@@ -12935,25 +12947,25 @@
     </row>
     <row r="184" spans="1:13">
       <c r="A184" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="B184" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="C184" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D184" t="s">
         <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="G184" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="H184" t="s">
         <v>26</v>
@@ -12976,13 +12988,13 @@
     </row>
     <row r="185" spans="1:13">
       <c r="A185" t="s">
-        <v>420</v>
+        <v>90</v>
       </c>
       <c r="B185" t="s">
-        <v>421</v>
+        <v>91</v>
       </c>
       <c r="C185" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D185" t="s">
         <v>11</v>
@@ -12990,11 +13002,8 @@
       <c r="E185" t="s">
         <v>12</v>
       </c>
-      <c r="F185" t="s">
-        <v>422</v>
-      </c>
       <c r="G185" t="s">
-        <v>423</v>
+        <v>92</v>
       </c>
       <c r="H185" t="s">
         <v>26</v>
@@ -13017,10 +13026,10 @@
     </row>
     <row r="186" spans="1:13">
       <c r="A186" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="B186" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="C186" t="s">
         <v>17</v>
@@ -13032,25 +13041,25 @@
         <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="G186" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="H186" t="s">
         <v>26</v>
       </c>
       <c r="I186" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J186">
         <v>0</v>
       </c>
       <c r="K186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M186">
         <v>0</v>
@@ -13058,10 +13067,10 @@
     </row>
     <row r="187" spans="1:13">
       <c r="A187" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="B187" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="C187" t="s">
         <v>17</v>
@@ -13073,10 +13082,10 @@
         <v>23</v>
       </c>
       <c r="F187" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="G187" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="H187" t="s">
         <v>26</v>
@@ -13099,10 +13108,10 @@
     </row>
     <row r="188" spans="1:13">
       <c r="A188" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B188" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C188" t="s">
         <v>17</v>
@@ -13113,23 +13122,26 @@
       <c r="E188" t="s">
         <v>12</v>
       </c>
+      <c r="F188" t="s">
+        <v>88</v>
+      </c>
       <c r="G188" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H188" t="s">
         <v>26</v>
       </c>
       <c r="I188" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J188">
         <v>0</v>
       </c>
       <c r="K188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M188">
         <v>0</v>
@@ -13137,25 +13149,25 @@
     </row>
     <row r="189" spans="1:13">
       <c r="A189" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="B189" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C189" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D189" t="s">
         <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F189" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="G189" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="H189" t="s">
         <v>26</v>
@@ -13178,25 +13190,25 @@
     </row>
     <row r="190" spans="1:13">
       <c r="A190" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="B190" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="C190" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D190" t="s">
         <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F190" t="s">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="G190" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="H190" t="s">
         <v>26</v>
@@ -13219,10 +13231,10 @@
     </row>
     <row r="191" spans="1:13">
       <c r="A191" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
       <c r="B191" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="C191" t="s">
         <v>17</v>
@@ -13234,10 +13246,10 @@
         <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
       <c r="G191" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="H191" t="s">
         <v>26</v>
@@ -13260,10 +13272,10 @@
     </row>
     <row r="192" spans="1:13">
       <c r="A192" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="B192" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
       <c r="C192" t="s">
         <v>17</v>
@@ -13275,10 +13287,10 @@
         <v>23</v>
       </c>
       <c r="F192" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="G192" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="H192" t="s">
         <v>26</v>
@@ -13301,25 +13313,25 @@
     </row>
     <row r="193" spans="1:13">
       <c r="A193" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="B193" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="C193" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D193" t="s">
         <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="G193" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="H193" t="s">
         <v>26</v>
@@ -13342,10 +13354,10 @@
     </row>
     <row r="194" spans="1:13">
       <c r="A194" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="B194" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="C194" t="s">
         <v>17</v>
@@ -13354,13 +13366,13 @@
         <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="G194" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="H194" t="s">
         <v>26</v>
@@ -13383,10 +13395,10 @@
     </row>
     <row r="195" spans="1:13">
       <c r="A195" t="s">
-        <v>496</v>
+        <v>456</v>
       </c>
       <c r="B195" t="s">
-        <v>497</v>
+        <v>457</v>
       </c>
       <c r="C195" t="s">
         <v>17</v>
@@ -13398,10 +13410,10 @@
         <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="G195" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="H195" t="s">
         <v>26</v>
@@ -13424,13 +13436,13 @@
     </row>
     <row r="196" spans="1:13">
       <c r="A196" t="s">
-        <v>492</v>
+        <v>452</v>
       </c>
       <c r="B196" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="C196" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D196" t="s">
         <v>11</v>
@@ -13439,10 +13451,10 @@
         <v>23</v>
       </c>
       <c r="F196" t="s">
-        <v>494</v>
+        <v>454</v>
       </c>
       <c r="G196" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="H196" t="s">
         <v>26</v>
@@ -13465,25 +13477,25 @@
     </row>
     <row r="197" spans="1:13">
       <c r="A197" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="B197" t="s">
-        <v>489</v>
+        <v>449</v>
       </c>
       <c r="C197" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D197" t="s">
         <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F197" t="s">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="G197" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="H197" t="s">
         <v>26</v>
@@ -13506,25 +13518,25 @@
     </row>
     <row r="198" spans="1:13">
       <c r="A198" t="s">
-        <v>484</v>
+        <v>444</v>
       </c>
       <c r="B198" t="s">
-        <v>485</v>
+        <v>445</v>
       </c>
       <c r="C198" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D198" t="s">
         <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F198" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="G198" t="s">
-        <v>487</v>
+        <v>447</v>
       </c>
       <c r="H198" t="s">
         <v>26</v>
@@ -13547,25 +13559,25 @@
     </row>
     <row r="199" spans="1:13">
       <c r="A199" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="B199" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="C199" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D199" t="s">
         <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="G199" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="H199" t="s">
         <v>26</v>
@@ -13588,10 +13600,10 @@
     </row>
     <row r="200" spans="1:13">
       <c r="A200" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="B200" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="C200" t="s">
         <v>22</v>
@@ -13603,10 +13615,10 @@
         <v>23</v>
       </c>
       <c r="F200" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="G200" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="H200" t="s">
         <v>26</v>
@@ -13629,25 +13641,25 @@
     </row>
     <row r="201" spans="1:13">
       <c r="A201" t="s">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="B201" t="s">
-        <v>80</v>
+        <v>489</v>
       </c>
       <c r="C201" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D201" t="s">
         <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>81</v>
+        <v>490</v>
       </c>
       <c r="G201" t="s">
-        <v>82</v>
+        <v>491</v>
       </c>
       <c r="H201" t="s">
         <v>26</v>
@@ -13670,10 +13682,10 @@
     </row>
     <row r="202" spans="1:13">
       <c r="A202" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="B202" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C202" t="s">
         <v>22</v>
@@ -13682,13 +13694,13 @@
         <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="G202" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="H202" t="s">
         <v>26</v>
@@ -13711,13 +13723,13 @@
     </row>
     <row r="203" spans="1:13">
       <c r="A203" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="B203" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="C203" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D203" t="s">
         <v>11</v>
@@ -13726,10 +13738,10 @@
         <v>23</v>
       </c>
       <c r="F203" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="G203" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="H203" t="s">
         <v>26</v>
@@ -13752,13 +13764,13 @@
     </row>
     <row r="204" spans="1:13">
       <c r="A204" t="s">
-        <v>528</v>
+        <v>476</v>
       </c>
       <c r="B204" t="s">
-        <v>529</v>
+        <v>477</v>
       </c>
       <c r="C204" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D204" t="s">
         <v>11</v>
@@ -13767,10 +13779,10 @@
         <v>23</v>
       </c>
       <c r="F204" t="s">
-        <v>530</v>
+        <v>478</v>
       </c>
       <c r="G204" t="s">
-        <v>531</v>
+        <v>479</v>
       </c>
       <c r="H204" t="s">
         <v>26</v>
@@ -13793,40 +13805,40 @@
     </row>
     <row r="205" spans="1:13">
       <c r="A205" t="s">
-        <v>524</v>
+        <v>79</v>
       </c>
       <c r="B205" t="s">
-        <v>525</v>
+        <v>80</v>
       </c>
       <c r="C205" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D205" t="s">
         <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F205" t="s">
-        <v>526</v>
+        <v>81</v>
       </c>
       <c r="G205" t="s">
-        <v>527</v>
+        <v>82</v>
       </c>
       <c r="H205" t="s">
         <v>26</v>
       </c>
       <c r="I205" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J205">
         <v>0</v>
       </c>
       <c r="K205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M205">
         <v>0</v>
@@ -13834,25 +13846,25 @@
     </row>
     <row r="206" spans="1:13">
       <c r="A206" t="s">
-        <v>520</v>
+        <v>472</v>
       </c>
       <c r="B206" t="s">
-        <v>521</v>
+        <v>473</v>
       </c>
       <c r="C206" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D206" t="s">
         <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F206" t="s">
-        <v>522</v>
+        <v>474</v>
       </c>
       <c r="G206" t="s">
-        <v>523</v>
+        <v>475</v>
       </c>
       <c r="H206" t="s">
         <v>26</v>
@@ -13875,13 +13887,13 @@
     </row>
     <row r="207" spans="1:13">
       <c r="A207" t="s">
-        <v>75</v>
+        <v>468</v>
       </c>
       <c r="B207" t="s">
-        <v>76</v>
+        <v>469</v>
       </c>
       <c r="C207" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D207" t="s">
         <v>11</v>
@@ -13890,10 +13902,10 @@
         <v>23</v>
       </c>
       <c r="F207" t="s">
-        <v>77</v>
+        <v>470</v>
       </c>
       <c r="G207" t="s">
-        <v>78</v>
+        <v>471</v>
       </c>
       <c r="H207" t="s">
         <v>26</v>
@@ -13916,10 +13928,10 @@
     </row>
     <row r="208" spans="1:13">
       <c r="A208" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="B208" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="C208" t="s">
         <v>17</v>
@@ -13931,10 +13943,10 @@
         <v>23</v>
       </c>
       <c r="F208" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="G208" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="H208" t="s">
         <v>26</v>
@@ -13957,10 +13969,10 @@
     </row>
     <row r="209" spans="1:13">
       <c r="A209" t="s">
-        <v>32</v>
+        <v>520</v>
       </c>
       <c r="B209" t="s">
-        <v>33</v>
+        <v>521</v>
       </c>
       <c r="C209" t="s">
         <v>17</v>
@@ -13969,13 +13981,13 @@
         <v>11</v>
       </c>
       <c r="E209" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>34</v>
+        <v>522</v>
       </c>
       <c r="G209" t="s">
-        <v>35</v>
+        <v>523</v>
       </c>
       <c r="H209" t="s">
         <v>26</v>
@@ -13998,25 +14010,25 @@
     </row>
     <row r="210" spans="1:13">
       <c r="A210" t="s">
-        <v>508</v>
+        <v>75</v>
       </c>
       <c r="B210" t="s">
-        <v>509</v>
+        <v>76</v>
       </c>
       <c r="C210" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D210" t="s">
         <v>11</v>
       </c>
       <c r="E210" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F210" t="s">
-        <v>510</v>
+        <v>77</v>
       </c>
       <c r="G210" t="s">
-        <v>511</v>
+        <v>78</v>
       </c>
       <c r="H210" t="s">
         <v>26</v>
@@ -14039,13 +14051,13 @@
     </row>
     <row r="211" spans="1:13">
       <c r="A211" t="s">
-        <v>71</v>
+        <v>512</v>
       </c>
       <c r="B211" t="s">
-        <v>72</v>
+        <v>513</v>
       </c>
       <c r="C211" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D211" t="s">
         <v>11</v>
@@ -14054,10 +14066,10 @@
         <v>23</v>
       </c>
       <c r="F211" t="s">
-        <v>73</v>
+        <v>514</v>
       </c>
       <c r="G211" t="s">
-        <v>74</v>
+        <v>515</v>
       </c>
       <c r="H211" t="s">
         <v>26</v>
@@ -14080,10 +14092,10 @@
     </row>
     <row r="212" spans="1:13">
       <c r="A212" t="s">
-        <v>556</v>
+        <v>32</v>
       </c>
       <c r="B212" t="s">
-        <v>557</v>
+        <v>33</v>
       </c>
       <c r="C212" t="s">
         <v>17</v>
@@ -14092,28 +14104,28 @@
         <v>11</v>
       </c>
       <c r="E212" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F212" t="s">
-        <v>558</v>
+        <v>34</v>
       </c>
       <c r="G212" t="s">
-        <v>559</v>
+        <v>35</v>
       </c>
       <c r="H212" t="s">
         <v>26</v>
       </c>
       <c r="I212" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J212">
         <v>0</v>
       </c>
       <c r="K212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M212">
         <v>0</v>
@@ -14121,10 +14133,10 @@
     </row>
     <row r="213" spans="1:13">
       <c r="A213" t="s">
-        <v>552</v>
+        <v>508</v>
       </c>
       <c r="B213" t="s">
-        <v>553</v>
+        <v>509</v>
       </c>
       <c r="C213" t="s">
         <v>17</v>
@@ -14133,13 +14145,13 @@
         <v>11</v>
       </c>
       <c r="E213" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F213" t="s">
-        <v>554</v>
+        <v>510</v>
       </c>
       <c r="G213" t="s">
-        <v>555</v>
+        <v>511</v>
       </c>
       <c r="H213" t="s">
         <v>26</v>
@@ -14162,10 +14174,10 @@
     </row>
     <row r="214" spans="1:13">
       <c r="A214" t="s">
-        <v>548</v>
+        <v>71</v>
       </c>
       <c r="B214" t="s">
-        <v>549</v>
+        <v>72</v>
       </c>
       <c r="C214" t="s">
         <v>22</v>
@@ -14177,10 +14189,10 @@
         <v>23</v>
       </c>
       <c r="F214" t="s">
-        <v>550</v>
+        <v>73</v>
       </c>
       <c r="G214" t="s">
-        <v>551</v>
+        <v>74</v>
       </c>
       <c r="H214" t="s">
         <v>26</v>
@@ -14203,25 +14215,25 @@
     </row>
     <row r="215" spans="1:13">
       <c r="A215" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="B215" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="C215" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D215" t="s">
         <v>11</v>
       </c>
       <c r="E215" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F215" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="G215" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="H215" t="s">
         <v>26</v>
@@ -14244,40 +14256,40 @@
     </row>
     <row r="216" spans="1:13">
       <c r="A216" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="B216" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="C216" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D216" t="s">
         <v>11</v>
       </c>
       <c r="E216" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F216" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="G216" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="H216" t="s">
         <v>26</v>
       </c>
       <c r="I216" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J216">
         <v>0</v>
       </c>
       <c r="K216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M216">
         <v>0</v>
@@ -14285,10 +14297,10 @@
     </row>
     <row r="217" spans="1:13">
       <c r="A217" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="B217" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="C217" t="s">
         <v>22</v>
@@ -14300,10 +14312,10 @@
         <v>12</v>
       </c>
       <c r="F217" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="G217" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="H217" t="s">
         <v>26</v>
@@ -14326,13 +14338,13 @@
     </row>
     <row r="218" spans="1:13">
       <c r="A218" t="s">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="B218" t="s">
-        <v>573</v>
+        <v>533</v>
       </c>
       <c r="C218" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D218" t="s">
         <v>11</v>
@@ -14341,25 +14353,25 @@
         <v>12</v>
       </c>
       <c r="F218" t="s">
-        <v>574</v>
+        <v>534</v>
       </c>
       <c r="G218" t="s">
-        <v>575</v>
+        <v>535</v>
       </c>
       <c r="H218" t="s">
         <v>26</v>
       </c>
       <c r="I218" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J218">
         <v>0</v>
       </c>
       <c r="K218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M218">
         <v>0</v>
@@ -14735,8 +14747,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I227">
-    <sortCondition descending="1" ref="H1"/>
+  <sortState ref="A2:M227">
+    <sortCondition descending="1" ref="J1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/cassandra_issues_inspected_merged.xlsx
+++ b/cassandra_issues_inspected_merged.xlsx
@@ -5051,8 +5051,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5083,7 +5085,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5094,6 +5096,7 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5104,6 +5107,7 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5466,8 +5470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="M49" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8646,19 +8650,19 @@
         <v>585</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I78" t="s">
         <v>14</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78">
         <v>0</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -8684,19 +8688,19 @@
         <v>582</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I79" t="s">
         <v>14</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79">
         <v>0</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -8725,19 +8729,19 @@
         <v>116</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I80" t="s">
         <v>14</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80">
         <v>0</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -8766,19 +8770,19 @@
         <v>579</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I81" t="s">
         <v>14</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81">
         <v>0</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -8807,19 +8811,19 @@
         <v>108</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I82" t="s">
         <v>14</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82">
         <v>0</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82">
         <v>0</v>
